--- a/Symphony/2021/May/All Details/01.05.2021/MC Bank Statement May-2021.xlsx
+++ b/Symphony/2021/May/All Details/01.05.2021/MC Bank Statement May-2021.xlsx
@@ -8680,6 +8680,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -8696,9 +8699,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -8711,7 +8711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI252"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A103" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
@@ -9001,14 +9001,14 @@
         <v>145500</v>
       </c>
       <c r="C5" s="94">
-        <v>125650</v>
+        <v>155650</v>
       </c>
       <c r="D5" s="94">
         <v>310</v>
       </c>
       <c r="E5" s="94">
         <f>C5+D5</f>
-        <v>125960</v>
+        <v>155960</v>
       </c>
       <c r="F5" s="95"/>
       <c r="G5" s="91"/>
@@ -10913,7 +10913,7 @@
       </c>
       <c r="C33" s="99">
         <f>SUM(C5:C32)</f>
-        <v>125650</v>
+        <v>155650</v>
       </c>
       <c r="D33" s="99">
         <f>SUM(D5:D32)</f>
@@ -10921,11 +10921,11 @@
       </c>
       <c r="E33" s="99">
         <f>SUM(E5:E32)</f>
-        <v>125960</v>
+        <v>155960</v>
       </c>
       <c r="F33" s="107">
         <f>B33-E33</f>
-        <v>19540</v>
+        <v>-10460</v>
       </c>
       <c r="G33" s="121"/>
       <c r="H33" s="259"/>
@@ -12660,7 +12660,7 @@
         <v>173</v>
       </c>
       <c r="C59" s="142">
-        <v>561850</v>
+        <v>531850</v>
       </c>
       <c r="D59" s="143" t="s">
         <v>179</v>
@@ -17298,7 +17298,7 @@
       <c r="B119" s="311"/>
       <c r="C119" s="165">
         <f>SUM(C37:C118)</f>
-        <v>2655936</v>
+        <v>2625936</v>
       </c>
       <c r="D119" s="166"/>
       <c r="F119" s="158"/>
@@ -17451,7 +17451,7 @@
       <c r="B121" s="313"/>
       <c r="C121" s="170">
         <f>C119+L142</f>
-        <v>2655936</v>
+        <v>2625936</v>
       </c>
       <c r="D121" s="171"/>
       <c r="F121" s="153"/>
@@ -20056,7 +20056,7 @@
   <dimension ref="A1:AC222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E23"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -20159,7 +20159,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="68">
-        <v>5871841.0300000012</v>
+        <v>5736841.0300000012</v>
       </c>
       <c r="F4" s="60"/>
       <c r="G4" s="53"/>
@@ -20233,7 +20233,7 @@
         <v>146</v>
       </c>
       <c r="E6" s="238">
-        <v>2872</v>
+        <v>167872</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="53"/>
@@ -20305,7 +20305,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="68">
-        <v>2655936</v>
+        <v>2625936</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="53"/>
